--- a/BOLERA-FACTURA/SUNAT FEBRERO SOLUCIONES.xlsx
+++ b/BOLERA-FACTURA/SUNAT FEBRERO SOLUCIONES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2223F68E-EBB6-4DA2-BA84-A44FBD010F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9871A5-6DDF-452D-935E-AC326DF3A778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>RUC : 10154142121</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>MAXIMINO ALEJANDRO YAYA VICENTE</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO ELIAS VEGA</t>
+  </si>
+  <si>
+    <t>JORGE JAVIER ZUÑIGA SOLIS</t>
+  </si>
+  <si>
+    <t>ANTONIO FRANCISCO MANRIQUE CHUQUISPUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGOVIA SAMAN FRANCISCO JOSE         </t>
+  </si>
+  <si>
+    <t>FACTURA</t>
+  </si>
+  <si>
+    <t>EB01</t>
   </si>
 </sst>
 </file>
@@ -527,8 +545,8 @@
   <dimension ref="A3:H3136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="7" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -593,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>14006</v>
@@ -617,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>14007</v>
@@ -641,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>14008</v>
@@ -665,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>14009</v>
@@ -689,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>14010</v>
@@ -713,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>14011</v>
@@ -737,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>14013</v>
@@ -761,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>14015</v>
@@ -785,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>14018</v>
@@ -809,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1">
         <v>14019</v>
@@ -833,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>14020</v>
@@ -857,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1">
         <v>14021</v>
@@ -881,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1">
         <v>14022</v>
@@ -905,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1">
         <v>14023</v>
@@ -929,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1">
         <v>14024</v>
@@ -953,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1">
         <v>14025</v>
@@ -977,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <v>14026</v>
@@ -995,9 +1013,15 @@
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
@@ -1007,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1">
         <v>14036</v>
@@ -1016,7 +1040,7 @@
         <v>1512</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ref="G25:G27" si="2">F27</f>
+        <f t="shared" ref="G27" si="2">F27</f>
         <v>1512</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1031,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1">
         <v>14037</v>
@@ -1055,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1">
         <v>14038</v>
@@ -1079,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1">
         <v>14039</v>
@@ -1103,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1">
         <v>14040</v>
@@ -1127,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1">
         <v>14041</v>
@@ -1151,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1">
         <v>14042</v>
@@ -1168,65 +1192,169 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>45357</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1">
+        <v>14112</v>
+      </c>
+      <c r="F36" s="3">
+        <v>932</v>
+      </c>
+      <c r="G36" s="3">
+        <f>F36</f>
+        <v>932</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1">
+        <v>14113</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1074</v>
+      </c>
+      <c r="G37" s="3">
+        <f>F37</f>
+        <v>1074</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1">
+        <v>14114</v>
+      </c>
+      <c r="F38" s="3">
+        <v>380</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" ref="G38:G39" si="4">F38</f>
+        <v>380</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>45357</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="D39" s="1">
+        <v>3714</v>
+      </c>
+      <c r="F39" s="3">
+        <v>295</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5">
+        <v>45363</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
